--- a/A-MGMES_Demo_Solution10-10版本/A-MGMES_Demo_Solution10-10版本/A-MGMES_Demo_Solution10-10版本/website/excel/CX11 FSB Drive Configuration.xlsx
+++ b/A-MGMES_Demo_Solution10-10版本/A-MGMES_Demo_Solution10-10版本/A-MGMES_Demo_Solution10-10版本/website/excel/CX11 FSB Drive Configuration.xlsx
@@ -21,13 +21,15 @@
     <sheet name="701254150001" sheetId="14" r:id="rId15"/>
     <sheet name="701254160001" sheetId="15" r:id="rId16"/>
     <sheet name="701311820001" sheetId="16" r:id="rId17"/>
+    <sheet name="701378680001" sheetId="17" r:id="rId18"/>
+    <sheet name="701378670001" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>0</t>
   </si>
@@ -221,6 +223,9 @@
     <t>8888399517</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -239,6 +244,9 @@
     <t>FSB070</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>70107809</t>
   </si>
   <si>
@@ -249,6 +257,9 @@
   </si>
   <si>
     <t>FSB080</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>8888086567</t>
@@ -264,6 +275,9 @@
   </si>
   <si>
     <t>70134246</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>70110898</t>
@@ -282,9 +296,6 @@
   </si>
   <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>17</t>
@@ -336,6 +347,9 @@
   </si>
   <si>
     <t>70134264</t>
+  </si>
+  <si>
+    <t>70137871</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>62</v>
@@ -1366,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -1392,13 +1406,13 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>0</v>
@@ -1547,7 +1561,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -1587,7 +1601,7 @@
         <v>46</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -1613,10 +1627,10 @@
         <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>12</v>
@@ -1791,7 +1805,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -1828,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>12</v>
@@ -1860,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>0</v>
@@ -1880,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -1906,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>10</v>
@@ -2056,7 +2070,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -2093,22 +2107,22 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -2119,22 +2133,22 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -2145,13 +2159,13 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>0</v>
@@ -2171,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -2337,7 +2351,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -2941,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -2953,10 +2967,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2967,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -2979,10 +2993,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2993,10 +3007,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -3005,10 +3019,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3019,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -3031,10 +3045,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3045,7 +3059,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -3057,10 +3071,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3071,7 +3085,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -3083,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3097,7 +3111,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -3109,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3269,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -3295,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -3321,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -3476,7 +3490,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -3513,10 +3527,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -3525,10 +3539,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3539,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
@@ -3699,7 +3713,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -3736,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -3762,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -3788,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -3943,7 +3957,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -3980,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -3992,10 +4006,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -4006,7 +4020,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -4018,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -4032,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -4058,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -4224,7 +4238,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -4828,10 +4842,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -4840,10 +4854,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4854,7 +4868,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -4866,10 +4880,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4880,10 +4894,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -4892,10 +4906,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4906,7 +4920,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -4918,10 +4932,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4932,7 +4946,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -4944,10 +4958,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4958,7 +4972,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -4970,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4984,7 +4998,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -4996,10 +5010,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5156,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -5182,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -5208,7 +5222,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -5363,7 +5377,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -5400,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -5412,10 +5426,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5426,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
@@ -5586,7 +5600,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -5623,10 +5637,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -5649,7 +5663,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -5675,7 +5689,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -5830,7 +5844,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -5867,10 +5881,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -5879,10 +5893,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5893,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -5905,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5919,7 +5933,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -5945,7 +5959,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -6111,7 +6125,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -6715,10 +6729,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -6727,10 +6741,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -6741,7 +6755,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -6753,10 +6767,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -6767,10 +6781,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -6779,10 +6793,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -6793,7 +6807,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -6805,10 +6819,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -6819,7 +6833,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -6831,10 +6845,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -6845,7 +6859,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -6857,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6871,7 +6885,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -6883,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -7043,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -7069,7 +7083,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -7095,7 +7109,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -7250,7 +7264,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -7287,10 +7301,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -7299,10 +7313,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -7313,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
@@ -7473,7 +7487,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -7510,10 +7524,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -7536,7 +7550,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -7562,7 +7576,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -7717,7 +7731,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -7754,10 +7768,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -7766,10 +7780,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -7780,7 +7794,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -7792,10 +7806,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -7806,7 +7820,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -7832,7 +7846,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -7998,7 +8012,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -8602,10 +8616,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -8614,10 +8628,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -8628,7 +8642,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -8640,10 +8654,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -8654,10 +8668,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -8666,10 +8680,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -8680,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -8692,10 +8706,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -8706,7 +8720,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -8718,10 +8732,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -8732,7 +8746,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -8744,10 +8758,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -8758,7 +8772,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -8770,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -8930,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -8956,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -8982,7 +8996,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -9137,7 +9151,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -9174,10 +9188,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -9186,10 +9200,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -9200,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
@@ -9360,7 +9374,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -9397,10 +9411,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -9423,7 +9437,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -9449,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -9604,7 +9618,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -9641,10 +9655,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -9653,10 +9667,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -9667,7 +9681,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -9679,10 +9693,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -9693,7 +9707,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -9719,7 +9733,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -9885,7 +9899,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -10489,10 +10503,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -10501,10 +10515,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -10515,7 +10529,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -10527,10 +10541,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -10541,7 +10555,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>53</v>
@@ -10553,10 +10567,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -10567,7 +10581,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -10579,10 +10593,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -10593,7 +10607,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -10605,10 +10619,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -10619,7 +10633,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -10631,10 +10645,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -10645,7 +10659,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -10657,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -10817,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -10843,7 +10857,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -10869,7 +10883,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -11024,7 +11038,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -11061,10 +11075,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -11073,10 +11087,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -11087,7 +11101,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
@@ -11247,7 +11261,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -11284,10 +11298,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -11296,10 +11310,10 @@
         <v>12</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -11310,7 +11324,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -11336,7 +11350,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -11362,7 +11376,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>10</v>
@@ -11512,7 +11526,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -11549,10 +11563,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -11561,10 +11575,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -11575,7 +11589,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -11587,10 +11601,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -11601,7 +11615,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -11627,7 +11641,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -11793,7 +11807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -12397,10 +12411,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -12409,10 +12423,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -12423,7 +12437,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -12435,10 +12449,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -12449,7 +12463,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>53</v>
@@ -12461,10 +12475,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -12475,7 +12489,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -12487,10 +12501,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -12501,7 +12515,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -12513,10 +12527,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -12527,7 +12541,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -12539,10 +12553,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -12553,7 +12567,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -12565,10 +12579,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -12725,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -12751,7 +12765,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -12777,7 +12791,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -12932,7 +12946,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -12969,10 +12983,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -12981,10 +12995,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -12995,7 +13009,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
@@ -13155,7 +13169,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -13192,10 +13206,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -13204,10 +13218,10 @@
         <v>12</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -13218,7 +13232,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -13244,7 +13258,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -13270,7 +13284,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>10</v>
@@ -13420,7 +13434,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -13457,10 +13471,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -13469,10 +13483,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -13483,7 +13497,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -13495,10 +13509,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -13509,7 +13523,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -13535,7 +13549,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -13701,7 +13715,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -14305,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>47</v>
@@ -14317,10 +14331,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -14331,7 +14345,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -14343,10 +14357,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -14357,7 +14371,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>53</v>
@@ -14369,10 +14383,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -14383,7 +14397,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -14395,10 +14409,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -14409,7 +14423,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -14421,10 +14435,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -14435,7 +14449,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -14447,10 +14461,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -14461,7 +14475,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -14473,10 +14487,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -14633,7 +14647,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -14659,7 +14673,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -14685,7 +14699,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -14840,7 +14854,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -14877,10 +14891,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -14889,10 +14903,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -14903,10 +14917,10 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>11</v>
@@ -14915,10 +14929,10 @@
         <v>12</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -14929,7 +14943,7 @@
         <v>3</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>10</v>
@@ -14941,10 +14955,10 @@
         <v>0</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -15084,7 +15098,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -15121,10 +15135,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -15133,10 +15147,10 @@
         <v>12</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -15147,7 +15161,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -15173,7 +15187,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -15199,7 +15213,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>10</v>
@@ -15349,7 +15363,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -15386,10 +15400,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -15398,10 +15412,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -15412,7 +15426,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -15424,10 +15438,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -15438,7 +15452,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -15464,7 +15478,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -15480,6 +15494,3822 @@
       </c>
       <c r="H230" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P256"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" s="1">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="1">
+        <v>3</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" s="1">
+        <v>4</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="1">
+        <v>3</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230" s="1">
+        <v>4</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P256"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" s="1">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="1">
+        <v>3</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="1">
+        <v>3</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230" s="1">
+        <v>4</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -16247,10 +20077,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>48</v>
@@ -16259,10 +20089,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -16302,7 +20132,7 @@
         <v>52</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>54</v>
@@ -16325,7 +20155,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -16337,10 +20167,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -16351,7 +20181,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -16363,10 +20193,10 @@
         <v>0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -16377,7 +20207,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -16389,10 +20219,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -16403,7 +20233,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -16415,10 +20245,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -16575,7 +20405,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -16587,10 +20417,10 @@
         <v>0</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -16601,7 +20431,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -16613,10 +20443,10 @@
         <v>12</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -16627,22 +20457,22 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -16782,7 +20612,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -16819,10 +20649,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -16831,10 +20661,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -16851,7 +20681,7 @@
         <v>10</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>12</v>
@@ -17005,7 +20835,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -17042,22 +20872,22 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -17074,7 +20904,7 @@
         <v>10</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>0</v>
@@ -17228,7 +21058,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -17265,22 +21095,22 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -17291,22 +21121,22 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -17317,7 +21147,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -17329,10 +21159,10 @@
         <v>0</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -17343,7 +21173,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -17355,10 +21185,10 @@
         <v>0</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -18126,10 +21956,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>48</v>
@@ -18138,10 +21968,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -18152,7 +21982,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -18164,10 +21994,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -18181,7 +22011,7 @@
         <v>52</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>54</v>
@@ -18204,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -18216,10 +22046,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -18230,7 +22060,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -18242,10 +22072,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -18256,7 +22086,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -18268,10 +22098,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -18282,7 +22112,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -18294,10 +22124,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -18454,10 +22284,10 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>48</v>
@@ -18480,13 +22310,13 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>12</v>
@@ -18506,7 +22336,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -18661,7 +22491,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -18698,10 +22528,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>54</v>
@@ -18710,10 +22540,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -18724,13 +22554,13 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>12</v>
@@ -18884,7 +22714,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -18921,10 +22751,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>57</v>
@@ -18947,13 +22777,13 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>0</v>
@@ -18973,7 +22803,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -19128,7 +22958,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -19165,22 +22995,22 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -19191,22 +23021,22 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -19217,7 +23047,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -19243,7 +23073,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -20029,7 +23859,7 @@
         <v>46</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>48</v>
@@ -20052,7 +23882,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -20064,10 +23894,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -20081,7 +23911,7 @@
         <v>52</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>54</v>
@@ -20104,7 +23934,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -20116,10 +23946,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -20130,7 +23960,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -20142,10 +23972,10 @@
         <v>0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -20156,7 +23986,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -20168,10 +23998,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -20182,7 +24012,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -20194,10 +24024,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -20354,7 +24184,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>62</v>
@@ -20380,7 +24210,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -20406,7 +24236,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -20561,7 +24391,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -20601,7 +24431,7 @@
         <v>46</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -20630,7 +24460,7 @@
         <v>10</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>0</v>
@@ -20784,7 +24614,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -20821,13 +24651,13 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>12</v>
@@ -20853,7 +24683,7 @@
         <v>10</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>0</v>
@@ -20873,7 +24703,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -21028,7 +24858,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -21065,22 +24895,22 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -21091,22 +24921,22 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -21117,13 +24947,13 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>0</v>
@@ -21143,7 +24973,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -21926,10 +25756,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>48</v>
@@ -21938,10 +25768,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -21978,10 +25808,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>54</v>
@@ -21990,10 +25820,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -22030,7 +25860,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -22042,10 +25872,10 @@
         <v>0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -22056,7 +25886,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -22068,10 +25898,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -22082,7 +25912,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -22094,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -22254,7 +26084,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -22280,7 +26110,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -22306,10 +26136,10 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>48</v>
@@ -22461,7 +26291,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -22498,10 +26328,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -22510,10 +26340,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -22530,7 +26360,7 @@
         <v>10</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>0</v>
@@ -22684,7 +26514,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -22724,19 +26554,19 @@
         <v>46</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -22753,7 +26583,7 @@
         <v>10</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>0</v>
@@ -22773,7 +26603,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -22799,7 +26629,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>10</v>
@@ -22949,7 +26779,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -22986,22 +26816,22 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -23012,22 +26842,22 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -23038,13 +26868,13 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>0</v>
@@ -23064,7 +26894,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -23847,10 +27677,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>48</v>
@@ -23859,10 +27689,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -23873,7 +27703,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -23885,10 +27715,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -23899,7 +27729,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>53</v>
@@ -23911,10 +27741,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -23951,7 +27781,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -23963,10 +27793,10 @@
         <v>0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -23977,7 +27807,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -23989,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -24003,7 +27833,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -24015,10 +27845,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -24175,7 +28005,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -24201,7 +28031,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -24227,7 +28057,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -24382,7 +28212,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -24422,7 +28252,7 @@
         <v>46</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -24451,7 +28281,7 @@
         <v>10</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>0</v>
@@ -24605,7 +28435,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -24645,19 +28475,19 @@
         <v>46</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -24674,7 +28504,7 @@
         <v>10</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>0</v>
@@ -24694,7 +28524,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -24720,7 +28550,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>10</v>
@@ -24870,7 +28700,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -24907,22 +28737,22 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -24933,22 +28763,22 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -24959,13 +28789,13 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>0</v>
@@ -24985,7 +28815,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -25151,7 +28981,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -25755,10 +29585,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -25767,10 +29597,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -25781,7 +29611,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -25793,10 +29623,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -25807,10 +29637,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -25819,10 +29649,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -25833,7 +29663,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -25845,10 +29675,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -25859,10 +29689,10 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>11</v>
@@ -25871,10 +29701,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -25885,7 +29715,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -25897,10 +29727,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -25911,7 +29741,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -25923,10 +29753,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -26083,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -26109,7 +29939,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -26135,7 +29965,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -26290,7 +30120,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -26327,10 +30157,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -26339,10 +30169,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -26353,7 +30183,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
@@ -26513,7 +30343,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -26550,10 +30380,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -26562,10 +30392,10 @@
         <v>12</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -26576,7 +30406,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -26602,7 +30432,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -26628,7 +30458,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>10</v>
@@ -26778,7 +30608,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -26815,10 +30645,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -26827,10 +30657,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -26841,7 +30671,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -26853,10 +30683,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -26867,7 +30697,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -26893,7 +30723,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -27059,7 +30889,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -27663,10 +31493,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -27675,10 +31505,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -27689,7 +31519,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -27701,10 +31531,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -27715,7 +31545,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>53</v>
@@ -27727,10 +31557,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -27741,7 +31571,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -27753,10 +31583,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -27767,7 +31597,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -27779,10 +31609,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -27793,7 +31623,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -27805,10 +31635,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -27819,7 +31649,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -27831,10 +31661,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -27991,7 +31821,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -28017,7 +31847,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -28043,7 +31873,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -28198,7 +32028,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -28235,10 +32065,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -28247,10 +32077,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -28261,7 +32091,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
@@ -28421,7 +32251,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -28458,10 +32288,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -28470,10 +32300,10 @@
         <v>12</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -28484,7 +32314,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -28510,7 +32340,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -28536,7 +32366,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>10</v>
@@ -28686,7 +32516,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -28723,10 +32553,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -28735,10 +32565,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -28749,7 +32579,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -28761,10 +32591,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -28775,7 +32605,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -28801,7 +32631,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
@@ -28967,7 +32797,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -29571,10 +33401,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
@@ -29583,10 +33413,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -29597,7 +33427,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>50</v>
@@ -29609,10 +33439,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -29623,10 +33453,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>11</v>
@@ -29635,10 +33465,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -29649,7 +33479,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>56</v>
@@ -29661,10 +33491,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -29675,7 +33505,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -29687,10 +33517,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -29701,7 +33531,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>10</v>
@@ -29713,10 +33543,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -29727,7 +33557,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
@@ -29739,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -29899,7 +33729,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -29925,7 +33755,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>63</v>
@@ -29951,7 +33781,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -30106,7 +33936,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -30143,10 +33973,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>11</v>
@@ -30155,10 +33985,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -30169,7 +33999,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>10</v>
@@ -30329,7 +34159,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194">
@@ -30366,10 +34196,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
@@ -30392,7 +34222,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>10</v>
@@ -30418,7 +34248,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>10</v>
@@ -30573,7 +34403,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
@@ -30610,10 +34440,10 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
@@ -30622,10 +34452,10 @@
         <v>12</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -30636,7 +34466,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>10</v>
@@ -30648,10 +34478,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -30662,7 +34492,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>10</v>
@@ -30688,7 +34518,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>10</v>
